--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1300377.182945065</v>
+        <v>-1303942.684818614</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791246</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13359892.00624727</v>
+        <v>13356352.12990475</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>271.3835317657711</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>318.3019487927382</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>69.98930104615236</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -795,7 +795,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>72.06629246587372</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>243.4497160657854</v>
       </c>
       <c r="V4" t="n">
-        <v>24.24336328856787</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>118.7666303836416</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>196.1877622074997</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -975,7 +975,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968124</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>95.1340820676549</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>122.0371014134914</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>175.6983641828944</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>77.07344524826817</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>342.1875908901463</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
@@ -1382,13 +1382,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>215.2505143278292</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362801</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>106.4436215053703</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.95297344855362</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465758</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>135.7615338819611</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1613,7 +1613,7 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>16.66600203378617</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
@@ -1670,10 +1670,10 @@
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>195.1193018251922</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993875</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177847</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681699</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187163</v>
@@ -1822,13 +1822,13 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>141.4573369393281</v>
       </c>
       <c r="X16" t="n">
-        <v>122.1150839068662</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1904,13 +1904,13 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730197</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,10 +2141,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.463826709389</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.8067977227892</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126123</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841671</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291034</v>
+        <v>208.0623001564645</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838901</v>
+        <v>24.17382596575007</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828913</v>
+        <v>52.06849973565019</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434677</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970376</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086857</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.778159243564</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431746</v>
+        <v>70.57601873167852</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459986</v>
+        <v>55.72314698196092</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643959</v>
+        <v>41.29686219380065</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193187</v>
+        <v>41.22330424667976</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908597</v>
+        <v>42.97275566644703</v>
       </c>
       <c r="G34" t="n">
-        <v>60.2350560614781</v>
+        <v>53.79159358883916</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805015</v>
+        <v>41.14384575541121</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922208</v>
+        <v>18.98356133658314</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.325522173678</v>
+        <v>9.882059701039054</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920531</v>
+        <v>88.00800320656637</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407385</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678083</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546743</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754244</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.959599222137</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988133</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541629</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658109</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C40" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092593</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1522.53953109295</v>
+        <v>790.1462079745143</v>
       </c>
       <c r="C2" t="n">
-        <v>1522.53953109295</v>
+        <v>790.1462079745143</v>
       </c>
       <c r="D2" t="n">
-        <v>1137.098402309618</v>
+        <v>790.1462079745143</v>
       </c>
       <c r="E2" t="n">
-        <v>734.5148774261622</v>
+        <v>387.5626830910588</v>
       </c>
       <c r="F2" t="n">
-        <v>317.62043895614</v>
+        <v>374.7086486614406</v>
       </c>
       <c r="G2" t="n">
-        <v>43.495659394755</v>
+        <v>365.5862971898479</v>
       </c>
       <c r="H2" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I2" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J2" t="n">
-        <v>43.495659394755</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>175.3530084793376</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>668.6733001978664</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1206.93208520796</v>
+        <v>1552.058346020846</v>
       </c>
       <c r="N2" t="n">
-        <v>1734.743368845422</v>
+        <v>2065.661024630534</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.78296973775</v>
+        <v>1908.648782757975</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.78296973775</v>
+        <v>1908.648782757975</v>
       </c>
       <c r="U2" t="n">
-        <v>1919.030240172349</v>
+        <v>1908.648782757975</v>
       </c>
       <c r="V2" t="n">
-        <v>1919.030240172349</v>
+        <v>1587.13166276531</v>
       </c>
       <c r="W2" t="n">
-        <v>1919.030240172349</v>
+        <v>1587.13166276531</v>
       </c>
       <c r="X2" t="n">
-        <v>1919.030240172349</v>
+        <v>1587.13166276531</v>
       </c>
       <c r="Y2" t="n">
-        <v>1522.53953109295</v>
+        <v>1190.640953685911</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021451</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622374</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837177</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946054</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777372</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>43.495659394755</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>43.495659394755</v>
+        <v>90.8905007444269</v>
       </c>
       <c r="I3" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J3" t="n">
-        <v>43.495659394755</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569815</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="L3" t="n">
-        <v>846.8008913552947</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="M3" t="n">
-        <v>1252.641318430371</v>
+        <v>407.9705203262588</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.641318430371</v>
+        <v>921.5731989359475</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021353</v>
+        <v>1435.175877545636</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.78296973775</v>
+        <v>1840.797246262034</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714989</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535683</v>
+        <v>2051.245294714989</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734592</v>
+        <v>1874.261482913897</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413234</v>
+        <v>1664.198339592539</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784301</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917587</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675992</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431065</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>401.4049822896909</v>
+        <v>1329.193866313878</v>
       </c>
       <c r="C4" t="n">
-        <v>231.1998643556801</v>
+        <v>1329.193866313878</v>
       </c>
       <c r="D4" t="n">
-        <v>231.1998643556801</v>
+        <v>1329.193866313878</v>
       </c>
       <c r="E4" t="n">
-        <v>231.1998643556801</v>
+        <v>1329.193866313878</v>
       </c>
       <c r="F4" t="n">
-        <v>73.87392956865305</v>
+        <v>1329.193866313878</v>
       </c>
       <c r="G4" t="n">
-        <v>73.87392956865305</v>
+        <v>1329.193866313878</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865305</v>
+        <v>1173.715315275372</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865305</v>
+        <v>1173.715315275372</v>
       </c>
       <c r="J4" t="n">
-        <v>43.495659394755</v>
+        <v>1173.715315275372</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>1255.550356385314</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>1419.677996259113</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>1605.969574597377</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>1789.159208628587</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>1951.863975670295</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>2071.740141446873</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="T4" t="n">
-        <v>709.2236301045415</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="U4" t="n">
-        <v>709.2236301045415</v>
+        <v>1829.25353371007</v>
       </c>
       <c r="V4" t="n">
-        <v>684.7353843585133</v>
+        <v>1563.274188530895</v>
       </c>
       <c r="W4" t="n">
-        <v>401.4049822896909</v>
+        <v>1563.274188530895</v>
       </c>
       <c r="X4" t="n">
-        <v>401.4049822896909</v>
+        <v>1329.193866313878</v>
       </c>
       <c r="Y4" t="n">
-        <v>401.4049822896909</v>
+        <v>1329.193866313878</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65.47204529596596</v>
+        <v>1257.00156952169</v>
       </c>
       <c r="C5" t="n">
-        <v>65.47204529596596</v>
+        <v>1257.00156952169</v>
       </c>
       <c r="D5" t="n">
-        <v>65.47204529596596</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="E5" t="n">
-        <v>65.47204529596596</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634777</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G5" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H5" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I5" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>893.8058945023292</v>
       </c>
       <c r="M5" t="n">
-        <v>1201.710316572951</v>
+        <v>1407.408573112018</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572951</v>
+        <v>1726.974845685402</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.74991746528</v>
+        <v>1726.974845685402</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596802</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S5" t="n">
-        <v>2054.81667642094</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="T5" t="n">
-        <v>1831.316073980357</v>
+        <v>1851.661735376341</v>
       </c>
       <c r="U5" t="n">
-        <v>1575.563344414956</v>
+        <v>1851.661735376341</v>
       </c>
       <c r="V5" t="n">
-        <v>1233.456535118474</v>
+        <v>1851.661735376341</v>
       </c>
       <c r="W5" t="n">
-        <v>862.4575000867617</v>
+        <v>1851.661735376341</v>
       </c>
       <c r="X5" t="n">
-        <v>862.4575000867617</v>
+        <v>1653.492278601089</v>
       </c>
       <c r="Y5" t="n">
-        <v>465.9667910073629</v>
+        <v>1257.00156952169</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284341</v>
+        <v>90.8905007444269</v>
       </c>
       <c r="I6" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653879</v>
+        <v>987.960053647981</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875481</v>
+        <v>1155.938290490838</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466462</v>
+        <v>1669.540969100527</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.41787818286</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.78296973775</v>
+        <v>2051.245294714989</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.78296973775</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813766</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492408</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863475</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1210.632628471904</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1021.325550821916</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>842.011333897423</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.495659394755</v>
+        <v>533.6104881723688</v>
       </c>
       <c r="C7" t="n">
-        <v>43.495659394755</v>
+        <v>363.405370238358</v>
       </c>
       <c r="D7" t="n">
-        <v>43.495659394755</v>
+        <v>240.135570830791</v>
       </c>
       <c r="E7" t="n">
-        <v>43.495659394755</v>
+        <v>240.135570830791</v>
       </c>
       <c r="F7" t="n">
-        <v>43.495659394755</v>
+        <v>240.135570830791</v>
       </c>
       <c r="G7" t="n">
-        <v>43.495659394755</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="H7" t="n">
-        <v>43.495659394755</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="I7" t="n">
-        <v>43.495659394755</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="J7" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T7" t="n">
-        <v>506.4075462870908</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U7" t="n">
-        <v>220.9687545289917</v>
+        <v>533.6104881723688</v>
       </c>
       <c r="V7" t="n">
-        <v>43.495659394755</v>
+        <v>533.6104881723688</v>
       </c>
       <c r="W7" t="n">
-        <v>43.495659394755</v>
+        <v>533.6104881723688</v>
       </c>
       <c r="X7" t="n">
-        <v>43.495659394755</v>
+        <v>533.6104881723688</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.495659394755</v>
+        <v>533.6104881723688</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1281.393958586371</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="C8" t="n">
-        <v>1281.393958586371</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="D8" t="n">
-        <v>1281.393958586371</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E8" t="n">
-        <v>935.7499273842031</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F8" t="n">
-        <v>518.8554889141809</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1832.61545280471</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4890,7 +4890,7 @@
         <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>1065.6651033901</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1618.175009429186</v>
+        <v>1691.856237801876</v>
       </c>
       <c r="C11" t="n">
-        <v>1296.795783078311</v>
+        <v>1370.477011451001</v>
       </c>
       <c r="D11" t="n">
-        <v>1296.795783078311</v>
+        <v>1056.832157813863</v>
       </c>
       <c r="E11" t="n">
-        <v>966.0085333410491</v>
+        <v>726.0449080766007</v>
       </c>
       <c r="F11" t="n">
-        <v>620.9103700172208</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="G11" t="n">
-        <v>279.5438896514178</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>2903.720295691637</v>
       </c>
       <c r="U11" t="n">
-        <v>2859.534777998631</v>
+        <v>2903.720295691637</v>
       </c>
       <c r="V11" t="n">
-        <v>2589.224243848344</v>
+        <v>2633.409761541349</v>
       </c>
       <c r="W11" t="n">
-        <v>2589.224243848344</v>
+        <v>2334.20700165583</v>
       </c>
       <c r="X11" t="n">
-        <v>2271.567913927594</v>
+        <v>2016.550671735081</v>
       </c>
       <c r="Y11" t="n">
-        <v>1946.873479994389</v>
+        <v>1691.856237801876</v>
       </c>
     </row>
     <row r="12">
@@ -5127,16 +5127,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>313.4007785423227</v>
+        <v>376.3917504485927</v>
       </c>
       <c r="C13" t="n">
-        <v>313.4007785423227</v>
+        <v>376.3917504485927</v>
       </c>
       <c r="D13" t="n">
-        <v>229.5639405910313</v>
+        <v>376.3917504485927</v>
       </c>
       <c r="E13" t="n">
-        <v>145.8014035964277</v>
+        <v>292.6292134539891</v>
       </c>
       <c r="F13" t="n">
-        <v>145.8014035964277</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,49 +5200,49 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118218</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138157</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.685342236449</v>
+        <v>1228.57997063622</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245442</v>
+        <v>1014.937454024314</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915624</v>
+        <v>1014.937454024314</v>
       </c>
       <c r="W13" t="n">
-        <v>530.3256286689336</v>
+        <v>803.4033271016858</v>
       </c>
       <c r="X13" t="n">
-        <v>530.3256286689336</v>
+        <v>641.1192800308628</v>
       </c>
       <c r="Y13" t="n">
-        <v>379.0098426317708</v>
+        <v>489.8034939937</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1452.672125045209</v>
+        <v>1357.337305106589</v>
       </c>
       <c r="C14" t="n">
-        <v>1131.292898694333</v>
+        <v>1035.958078755714</v>
       </c>
       <c r="D14" t="n">
-        <v>817.6480450571951</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="E14" t="n">
-        <v>486.8607953199327</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="F14" t="n">
-        <v>486.8607953199327</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
-        <v>145.4943149541297</v>
+        <v>380.9467447527723</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J14" t="n">
         <v>206.7689006129436</v>
@@ -5288,13 +5288,13 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q14" t="n">
         <v>3105.956385205776</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579423</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2499.985069341892</v>
       </c>
       <c r="W14" t="n">
-        <v>2106.065029543617</v>
+        <v>2200.782309456373</v>
       </c>
       <c r="X14" t="n">
-        <v>2106.065029543617</v>
+        <v>1883.125979535623</v>
       </c>
       <c r="Y14" t="n">
-        <v>1781.370595610412</v>
+        <v>1686.035775671792</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L15" t="n">
-        <v>174.7633905351325</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>424.585124192188</v>
+        <v>569.5655503012285</v>
       </c>
       <c r="C16" t="n">
-        <v>326.1762814043711</v>
+        <v>471.1567075134116</v>
       </c>
       <c r="D16" t="n">
-        <v>242.3394434530797</v>
+        <v>387.3198695621201</v>
       </c>
       <c r="E16" t="n">
-        <v>158.5769064584761</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="F16" t="n">
-        <v>158.5769064584761</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J16" t="n">
         <v>102.7129143774627</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593278</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907706</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U16" t="n">
-        <v>1067.062634295801</v>
+        <v>988.1475398457735</v>
       </c>
       <c r="V16" t="n">
-        <v>872.8795642628191</v>
+        <v>988.1475398457735</v>
       </c>
       <c r="W16" t="n">
-        <v>661.3454373401906</v>
+        <v>845.2613409171589</v>
       </c>
       <c r="X16" t="n">
-        <v>537.9968677372955</v>
+        <v>682.9772938463359</v>
       </c>
       <c r="Y16" t="n">
-        <v>537.9968677372955</v>
+        <v>682.9772938463359</v>
       </c>
     </row>
     <row r="17">
@@ -5498,40 +5498,40 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129444</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q17" t="n">
         <v>3105.956385205776</v>
@@ -5543,10 +5543,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5555,10 +5555,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J18" t="n">
         <v>175.2341099238429</v>
@@ -5601,10 +5601,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218804</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072677</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462919</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K19" t="n">
         <v>143.9541688140574</v>
@@ -5683,40 +5683,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>804.5780233445259</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974524</v>
       </c>
     </row>
     <row r="20">
@@ -5729,25 +5729,25 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5768,7 +5768,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q20" t="n">
         <v>3105.956385205776</v>
@@ -5780,16 +5780,16 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5826,7 +5826,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J21" t="n">
         <v>175.2341099238429</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218804</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072677</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462919</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K22" t="n">
         <v>143.9541688140574</v>
@@ -5917,43 +5917,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974524</v>
       </c>
     </row>
     <row r="23">
@@ -5981,43 +5981,43 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129445</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U23" t="n">
         <v>2855.219708188068</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J24" t="n">
         <v>175.2341099238429</v>
@@ -6075,7 +6075,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072666</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462913</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6221,34 +6221,34 @@
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>311.0659935859516</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>670.0483496134134</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605751</v>
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,10 +6312,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
-        <v>1751.713933651898</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
         <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796859</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225746</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904121</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286445</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026476</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6446,13 +6446,13 @@
         <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218597</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,10 +6461,10 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
         <v>1163.368641331942</v>
@@ -6473,16 +6473,16 @@
         <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2416.016209023994</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6491,10 +6491,10 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
         <v>3060.13197616485</v>
@@ -6506,7 +6506,7 @@
         <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>186.009121778567</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>813.7807714052482</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1469.558742615807</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O30" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414157</v>
@@ -6613,22 +6613,22 @@
         <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,28 +6643,28 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303047</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.3560533993086</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057092</v>
+        <v>601.3807258108113</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835532</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076166</v>
+        <v>67.55513560234515</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>255.26505437446</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>614.2474104019218</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1107.567702120451</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1653.568602165031</v>
       </c>
       <c r="N32" t="n">
-        <v>2245.585245304693</v>
+        <v>2293.032006377476</v>
       </c>
       <c r="O32" t="n">
-        <v>2685.624846197022</v>
+        <v>2733.071607269804</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174554</v>
+        <v>3192.911219976309</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042573</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038083</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908498</v>
+        <v>3325.162335939833</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397279</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281943</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131755</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748463</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076166</v>
+        <v>67.55513560234515</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076166</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076166</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>182.1918110717787</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>809.9634606984599</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1465.741431909019</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.2617145</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965136</v>
+        <v>365.6713676929733</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918673</v>
+        <v>309.3853606404875</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237465</v>
+        <v>267.6713584245273</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123135</v>
+        <v>226.0316571652548</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546509</v>
+        <v>182.6248332597527</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834609</v>
+        <v>128.2898902407233</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431931</v>
+        <v>86.73045008374226</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076166</v>
+        <v>67.55513560234515</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>67.55513560234515</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803361</v>
+        <v>261.0422972872697</v>
       </c>
       <c r="L34" t="n">
-        <v>391.0095793541359</v>
+        <v>536.8220577360521</v>
       </c>
       <c r="M34" t="n">
-        <v>682.57425041947</v>
+        <v>834.7657566492987</v>
       </c>
       <c r="N34" t="n">
-        <v>971.0369771777492</v>
+        <v>1017.955390680508</v>
       </c>
       <c r="O34" t="n">
-        <v>1239.014836946527</v>
+        <v>1180.660157722216</v>
       </c>
       <c r="P34" t="n">
-        <v>1464.164095450176</v>
+        <v>1300.536323498794</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746645</v>
+        <v>1379.98443587366</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387762</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451836</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518099</v>
+        <v>1159.305643501595</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250213</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439553</v>
+        <v>835.7257283273705</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000951</v>
+        <v>666.3144371400731</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124426</v>
+        <v>546.1532258045812</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584504</v>
+        <v>436.9602755027496</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6953,7 +6953,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6965,13 +6965,13 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -7011,25 +7011,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J36" t="n">
-        <v>112.6101842924878</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>112.6101842924878</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="L36" t="n">
-        <v>596.176270190801</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218804</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072677</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462919</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229973</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222416</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102856</v>
+        <v>313.6614512960414</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>499.9530296343054</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655146</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072227</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974524</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099317</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K38" t="n">
         <v>565.7512566404055</v>
@@ -7190,31 +7190,31 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443166</v>
@@ -7248,22 +7248,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J39" t="n">
-        <v>112.6101842924878</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>112.6101842924878</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O39" t="n">
         <v>1740.468202408463</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885588</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634916</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588725</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072688</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K40" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498046</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476279</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U40" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194236</v>
       </c>
       <c r="W40" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330096</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984011</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="41">
@@ -7403,10 +7403,10 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7427,7 +7427,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q41" t="n">
         <v>3105.956385205776</v>
@@ -7439,13 +7439,13 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U41" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7485,7 +7485,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J42" t="n">
         <v>175.2341099238429</v>
@@ -7494,16 +7494,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>862.5399502876207</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1490.311599914302</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>2146.089571124861</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
         <v>2146.089571124861</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218804</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072677</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462919</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>845.8474307072222</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974524</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7664,7 +7664,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q44" t="n">
         <v>3105.956385205776</v>
@@ -7673,10 +7673,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U44" t="n">
         <v>2855.219708188068</v>
@@ -7722,7 +7722,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J45" t="n">
         <v>175.2341099238429</v>
@@ -7731,19 +7731,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M45" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>2262.088962721623</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7786,7 +7786,7 @@
         <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218804</v>
       </c>
       <c r="E46" t="n">
         <v>149.5651460634914</v>
@@ -7795,37 +7795,37 @@
         <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072677</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462919</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K46" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960415</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.009399256734</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879432</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296512</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
         <v>1098.202162476281</v>
@@ -7849,7 +7849,7 @@
         <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974524</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>276.2476446788157</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321648</v>
+        <v>668.5156360519584</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920152</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>159.1611234709547</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>502.3269473776724</v>
+        <v>348.2985274535472</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083977</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.47814334312</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>312.616199601139</v>
+        <v>668.5156360519584</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>471.9127060583744</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8301,19 +8301,19 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>96.09182324999786</v>
+        <v>611.1777065035429</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886042</v>
+        <v>255.0470995641232</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.47814334312</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8459,19 +8459,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>652.9391957389953</v>
       </c>
       <c r="N8" t="n">
-        <v>393.9156246749224</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8538,10 +8538,10 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>237.3130400541719</v>
       </c>
       <c r="N9" t="n">
-        <v>230.2980308590267</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8775,7 +8775,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>691.2645480167034</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N12" t="n">
         <v>85.37211285416666</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9006,16 +9006,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9249,13 +9249,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>220.884447093964</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,28 +10188,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>203.8424305246119</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>220.884447093964</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,28 +10425,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939645</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,25 +10662,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>133.4455245943154</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>262.1075997502998</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10899,10 +10899,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>133.4455245943154</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
@@ -10911,10 +10911,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11142,19 +11142,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>461.3398360504045</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11379,22 +11379,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>192.2856137303845</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>34.51339320661309</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>43.74366251607523</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.32465266110272</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>26.52201503675518</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>233.0979055006561</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>126.3281877686807</v>
       </c>
     </row>
     <row r="15">
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>67.96144871407412</v>
       </c>
       <c r="X16" t="n">
-        <v>38.54612269324859</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
     </row>
     <row r="18">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1165244.495759045</v>
+        <v>1163439.852917764</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1165244.495759045</v>
+        <v>1163439.852917764</v>
       </c>
     </row>
     <row r="4">
@@ -26314,43 +26314,43 @@
         <v>162298.960284021</v>
       </c>
       <c r="C2" t="n">
-        <v>162298.960284021</v>
+        <v>162298.9602840211</v>
       </c>
       <c r="D2" t="n">
-        <v>162298.960284021</v>
+        <v>162298.9602840211</v>
       </c>
       <c r="E2" t="n">
         <v>143423.1210819606</v>
       </c>
       <c r="F2" t="n">
-        <v>143423.1210819608</v>
+        <v>143423.1210819606</v>
       </c>
       <c r="G2" t="n">
+        <v>162298.9602840214</v>
+      </c>
+      <c r="H2" t="n">
         <v>162298.9602840215</v>
       </c>
-      <c r="H2" t="n">
-        <v>162298.9602840214</v>
-      </c>
       <c r="I2" t="n">
-        <v>162298.9602840214</v>
+        <v>162298.9602840215</v>
       </c>
       <c r="J2" t="n">
-        <v>162298.9602840212</v>
+        <v>162298.9602840213</v>
       </c>
       <c r="K2" t="n">
         <v>162298.9602840213</v>
       </c>
       <c r="L2" t="n">
-        <v>162298.9602840209</v>
+        <v>162298.9602840207</v>
       </c>
       <c r="M2" t="n">
-        <v>162298.9602840214</v>
+        <v>162298.9602840215</v>
       </c>
       <c r="N2" t="n">
-        <v>162298.9602840214</v>
+        <v>162298.9602840215</v>
       </c>
       <c r="O2" t="n">
-        <v>162298.9602840214</v>
+        <v>162298.9602840215</v>
       </c>
       <c r="P2" t="n">
         <v>162298.9602840215</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340553</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.1403106218</v>
+        <v>22558.42953401333</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668196</v>
+        <v>47425.32553668193</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728544</v>
+        <v>62456.24177539656</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.52447081114</v>
       </c>
       <c r="N3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277113</v>
+        <v>27767.69404277123</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232424.3126138792</v>
+        <v>237331.8440488214</v>
       </c>
       <c r="C4" t="n">
-        <v>232424.3126138792</v>
+        <v>237331.8440488214</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
       </c>
       <c r="E4" t="n">
-        <v>151510.2534766781</v>
+        <v>151510.2534766782</v>
       </c>
       <c r="F4" t="n">
         <v>151510.2534766781</v>
@@ -26445,7 +26445,7 @@
         <v>200019.6624326434</v>
       </c>
       <c r="L4" t="n">
-        <v>199764.0885321601</v>
+        <v>199630.6939231053</v>
       </c>
       <c r="M4" t="n">
         <v>199269.1699682603</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26479,16 +26479,16 @@
         <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984051</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.19813315424</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319014.6017617279</v>
+        <v>-314061.6083336729</v>
       </c>
       <c r="C6" t="n">
-        <v>-136809.6534698719</v>
+        <v>-140202.9512996176</v>
       </c>
       <c r="D6" t="n">
-        <v>-145130.4938554414</v>
+        <v>-152866.7830788329</v>
       </c>
       <c r="E6" t="n">
-        <v>-173395.7135686025</v>
+        <v>-173605.4451152921</v>
       </c>
       <c r="F6" t="n">
-        <v>-61273.15209455785</v>
+        <v>-61482.88364124764</v>
       </c>
       <c r="G6" t="n">
         <v>-142565.3045364404</v>
       </c>
       <c r="H6" t="n">
+        <v>-95139.97899975842</v>
+      </c>
+      <c r="I6" t="n">
         <v>-95139.97899975852</v>
       </c>
-      <c r="I6" t="n">
-        <v>-95139.97899975855</v>
-      </c>
       <c r="J6" t="n">
-        <v>-308181.8965970443</v>
+        <v>-301665.611442471</v>
       </c>
       <c r="K6" t="n">
         <v>-101379.7474025416</v>
       </c>
       <c r="L6" t="n">
-        <v>-156562.3363371632</v>
+        <v>-160611.1735476354</v>
       </c>
       <c r="M6" t="n">
-        <v>-137340.8084593815</v>
+        <v>-138392.5034705696</v>
       </c>
       <c r="N6" t="n">
-        <v>-95139.97899975866</v>
+        <v>-95139.97899975853</v>
       </c>
       <c r="O6" t="n">
         <v>-122907.6730425297</v>
       </c>
       <c r="P6" t="n">
-        <v>-95139.97899975843</v>
+        <v>-95139.97899975847</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,19 +26707,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26799,37 +26799,37 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.489096301444</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095208</v>
+        <v>844.4391950293143</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660681</v>
+        <v>78.0703022192457</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551357</v>
+        <v>17.5800495428746</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346391</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485754</v>
+        <v>72.62154181506401</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773715</v>
+        <v>659.3622249971652</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407234</v>
+        <v>117.1268713042787</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485754</v>
+        <v>72.62154181506401</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>137.6475961911057</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27427,16 +27427,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>20.38379241077854</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48.86991870270184</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>148.2483091467699</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27546,19 +27546,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,19 +27588,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>39.13468777473267</v>
       </c>
       <c r="V4" t="n">
-        <v>239.0761884388161</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27664,22 +27664,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>46.08178912471834</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>189.370316808774</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626819</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>132.6819913403911</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>32.03968055301901</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27786,7 +27786,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>87.62118754448966</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>319.4163530060147</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -27859,19 +27859,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>56.3700987444746</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28755,19 +28755,19 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>128.2979821082783</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5.636002634529063</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28989,22 +28989,22 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>128.2979821082783</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29229,13 +29229,13 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>130.3599693155844</v>
+        <v>35.71049010668767</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901221</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29533,19 +29533,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>30.2722376590126</v>
+        <v>86.65052755599572</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431646</v>
@@ -29557,7 +29557,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>43.49509683160272</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>86.27291196566756</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000708</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000708</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.71446861254373</v>
+        <v>76.79385455031755</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727097</v>
       </c>
     </row>
     <row r="35">
@@ -30019,7 +30019,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30165,25 +30165,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668857</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M37" t="n">
-        <v>5.636002634529177</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733557</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30420,34 +30420,34 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.636002634527626</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082793</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="41">
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30654,16 +30654,16 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30882,25 +30882,25 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>5.636002634529603</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>133.1892414995784</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344375</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>9.597286046858363</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>409.9398253283604</v>
+        <v>255.9114054042353</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>162.8911480034117</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>322.7942147205903</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>3.704701200685939</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344375</v>
+        <v>169.6749867099565</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35179,19 +35179,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>503.2141441412681</v>
       </c>
       <c r="N8" t="n">
-        <v>244.7971333371383</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>144.92591800486</v>
+      </c>
+      <c r="N9" t="n">
         <v>591.4121262692951</v>
-      </c>
-      <c r="N9" t="n">
-        <v>144.9259180048601</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35495,7 +35495,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>598.8774259673916</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36051,19 +36051,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905431</v>
+        <v>313.3380164832371</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36285,10 +36285,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184307</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36525,13 +36525,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905431</v>
+        <v>220.7505244816465</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36598,25 +36598,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272232</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.7566830047985</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
-        <v>135.5123342397974</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>563.4149484039237</v>
+        <v>619.7932383009069</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
@@ -36853,7 +36853,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>113.7820836676936</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>189.6059785576917</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682818</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.9226305176209</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>437.9774494722553</v>
+        <v>464.4844572792974</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111299</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273753</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397978</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791174</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>195.4415774595197</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>278.5654145947298</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>300.9532312255017</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750296</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.423493438029</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.17123262269621</v>
+        <v>80.25061856047003</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O35" t="n">
         <v>444.4844453457863</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>51.00106726098205</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>172.5106644169664</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.636002634529504</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>193.8093140873211</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37479,7 +37479,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37564,7 +37564,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>2.296703792355879e-12</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>51.00106726098205</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
@@ -37631,10 +37631,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37704,7 +37704,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37716,13 +37716,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>9.092766644680109</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634530472</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P41" t="n">
         <v>351.7045375065877</v>
@@ -37862,19 +37862,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>371.2794891934863</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -37941,7 +37941,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37950,16 +37950,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>102.2252668734663</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,10 +38178,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>171.4214974565496</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5332807683763</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38193,10 +38193,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
